--- a/medicine/Mort/Mémorial_du_génocide_arménien_de_Décines-Charpieu/Mémorial_du_génocide_arménien_de_Décines-Charpieu.xlsx
+++ b/medicine/Mort/Mémorial_du_génocide_arménien_de_Décines-Charpieu/Mémorial_du_génocide_arménien_de_Décines-Charpieu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_du_g%C3%A9nocide_arm%C3%A9nien_de_D%C3%A9cines-Charpieu</t>
+          <t>Mémorial_du_génocide_arménien_de_Décines-Charpieu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le monument du génocide de Décines-Charpieu est un mémorial commémorant le génocide arménien, situé rue du 24-avril-1915 à Décines-Charpieu en région lyonnaise.
-Inauguré le 4 juin 1972[1], il constitue le premier mémorial du génocide arménien érigé en France[2],[3].
+Inauguré le 4 juin 1972, il constitue le premier mémorial du génocide arménien érigé en France,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9morial_du_g%C3%A9nocide_arm%C3%A9nien_de_D%C3%A9cines-Charpieu</t>
+          <t>Mémorial_du_génocide_arménien_de_Décines-Charpieu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son concepteur est Robert Darnas[4] (1913-1980). La construction de l'ensemble a débuté le samedi 24 avril 1965[1], jour du cinquantenaire du 24 avril 1915.
-Le monument est profané par des vandales se réclamant des Loups gris dans la nuit 31 octobre au 1er novembre 2020[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son concepteur est Robert Darnas (1913-1980). La construction de l'ensemble a débuté le samedi 24 avril 1965, jour du cinquantenaire du 24 avril 1915.
+Le monument est profané par des vandales se réclamant des Loups gris dans la nuit 31 octobre au 1er novembre 2020.
 </t>
         </is>
       </c>
